--- a/data/trans_orig/P36B09_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B09_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFF49B53-037F-4AC6-A2B5-CFE276E1489C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23FEE359-2600-4990-9824-AC09D93D24C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{26984EC4-7BF6-4193-AA10-F61B544AAFEA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8DEE665F-AD3D-41B1-A122-53FBA1CC9700}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="124">
   <si>
     <t>Población según el número de raciones de legumbres que consumen a la semana en 2023 (Tasa respuesta: 99,76%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>6,57%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
   </si>
   <si>
     <t>6,7%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
   </si>
   <si>
     <t>Una o dos a la semana</t>
@@ -104,28 +104,28 @@
     <t>59,88%</t>
   </si>
   <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
   </si>
   <si>
     <t>57,82%</t>
   </si>
   <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
   </si>
   <si>
     <t>58,63%</t>
   </si>
   <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
   </si>
   <si>
     <t>Tres o más por semana</t>
@@ -134,28 +134,28 @@
     <t>33,56%</t>
   </si>
   <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
   </si>
   <si>
     <t>35,4%</t>
   </si>
   <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
   </si>
   <si>
     <t>34,67%</t>
   </si>
   <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,79 +167,79 @@
     <t>7,49%</t>
   </si>
   <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
+    <t>8,03%</t>
   </si>
   <si>
     <t>64,65%</t>
   </si>
   <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
   </si>
   <si>
     <t>62,99%</t>
   </si>
   <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
   </si>
   <si>
     <t>63,8%</t>
   </si>
   <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
   </si>
   <si>
     <t>27,86%</t>
   </si>
   <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
   </si>
   <si>
     <t>30,31%</t>
   </si>
   <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
   </si>
   <si>
     <t>29,11%</t>
   </si>
   <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -248,25 +248,25 @@
     <t>7,95%</t>
   </si>
   <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
   </si>
   <si>
     <t>9,08%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
   </si>
   <si>
     <t>8,53%</t>
   </si>
   <si>
-    <t>6,98%</t>
+    <t>7,05%</t>
   </si>
   <si>
     <t>10,17%</t>
@@ -275,133 +275,136 @@
     <t>66,04%</t>
   </si>
   <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
   </si>
   <si>
     <t>67,14%</t>
   </si>
   <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
   </si>
   <si>
     <t>66,6%</t>
   </si>
   <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
   </si>
   <si>
     <t>26,02%</t>
   </si>
   <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
   </si>
   <si>
     <t>23,79%</t>
   </si>
   <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
   </si>
   <si>
     <t>24,87%</t>
   </si>
   <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
   </si>
   <si>
     <t>7,43%</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
   </si>
   <si>
     <t>7,16%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
   </si>
   <si>
     <t>7,29%</t>
   </si>
   <si>
-    <t>6,62%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
   </si>
   <si>
     <t>64,16%</t>
   </si>
   <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
   </si>
   <si>
     <t>62,64%</t>
   </si>
   <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
   </si>
   <si>
     <t>63,35%</t>
   </si>
   <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
   </si>
   <si>
     <t>28,41%</t>
   </si>
   <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
   </si>
   <si>
     <t>30,2%</t>
   </si>
   <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
   </si>
   <si>
     <t>29,36%</t>
   </si>
   <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -816,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01205BFE-A68B-405B-B2AC-56A279F86ED7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1948076A-4D61-4D7F-9E16-B60589BE7BD8}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1594,7 +1597,7 @@
         <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1609,13 +1612,13 @@
         <v>2162755</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>3446</v>
@@ -1624,13 +1627,13 @@
         <v>2375256</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>5646</v>
@@ -1639,13 +1642,13 @@
         <v>4538011</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1660,13 +1663,13 @@
         <v>957567</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>1538</v>
@@ -1675,13 +1678,13 @@
         <v>1145395</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>2466</v>
@@ -1690,13 +1693,13 @@
         <v>2102962</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,7 +1755,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
